--- a/biology/Microbiologie/Clostridia/Clostridia.xlsx
+++ b/biology/Microbiologie/Clostridia/Clostridia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clostridia sont une classe de bactéries diversifiée contenant un mélange d'organismes Gram positifs et Gram négatifs de l'embranchement des Bacillota. Son nom provient de « Clostridiales » qui est l'ancien nom de son ordre type, devenu Eubacteriales.
 Il s'agit typiquement de bactéries anaérobies obligatoires et sporulées. On y trouve notamment le genre Clostridium dont plusieurs espèces sont des pathogènes humains responsables d'infections toxiniques très graves telles que le botulisme (C. botulinum), le tétanos (C. tetani) ou encore la gangrène gazeuse (C. perfringens).
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette classe est décrite en 2009 par F.A. Rainey dans la deuxième édition du Bergey's Manual of Systematic Bacteriology[1]. Elle validée l'année suivante par une publication dans l'IJSEM[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classe est décrite en 2009 par F.A. Rainey dans la deuxième édition du Bergey's Manual of Systematic Bacteriology. Elle validée l'année suivante par une publication dans l'IJSEM.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la LPSN  (7 décembre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (7 décembre 2022) :
 Eubacteriales Buchanan 1917 – ordre type
 Halanaerobiales corrig. Rainey &amp; Zhilina 1995
 Koleobacterales Sakamoto et al. 2021
@@ -581,7 +597,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des espèces du genre Clostridia sont des organismes saprophytes fréquemment trouvés dans la nature (notamment dans les sols)[réf. nécessaire].
 </t>
